--- a/SPD_Lab_WiTi/Raport/Wyniki.xlsx
+++ b/SPD_Lab_WiTi/Raport/Wyniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WK\Documents\PWr\SPD_Lab\SPD_Lab_WiTi\Raport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EED196A-0A2B-495A-819B-280C40F5B570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E249C782-CA4A-4AC8-A182-41A73A26A20F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BDB6971-7220-4915-B848-BEECA78C517E}"/>
+    <workbookView xWindow="19410" yWindow="2625" windowWidth="18585" windowHeight="13290" xr2:uid="{9BDB6971-7220-4915-B848-BEECA78C517E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>name</t>
   </si>
@@ -84,10 +84,13 @@
     <t>opt czas</t>
   </si>
   <si>
-    <t>sortD [BM]</t>
+    <t>PRD</t>
   </si>
   <si>
-    <t>PRD</t>
+    <t>sortD czas</t>
+  </si>
+  <si>
+    <t>b.d.</t>
   </si>
 </sst>
 </file>
@@ -312,13 +315,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.046812749003984</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.52079002079002079</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.32459016393442625</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2524,12 +2527,13 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="12" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2648,89 +2652,81 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
-        <v>2055</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="C4" s="1">
-        <v>1463</v>
+        <v>4.8199999999999999E-5</v>
       </c>
       <c r="D4" s="1">
-        <v>1212</v>
+        <v>3.7770000000000002E-4</v>
       </c>
       <c r="E4" s="1">
-        <v>681</v>
+        <v>3.7669999999999999E-4</v>
       </c>
       <c r="F4" s="1">
-        <v>646</v>
+        <v>4.9450000000000004E-4</v>
       </c>
       <c r="G4" s="1">
-        <v>310</v>
+        <v>4.1199999999999999E-4</v>
       </c>
       <c r="H4" s="1">
-        <v>321</v>
+        <v>3.5560000000000002E-4</v>
       </c>
       <c r="I4" s="1">
-        <v>914</v>
+        <v>1.8508999999999999E-3</v>
       </c>
       <c r="J4" s="1">
-        <v>574</v>
+        <v>3.2009999999999997E-4</v>
       </c>
       <c r="K4" s="1">
-        <v>747</v>
+        <v>3.0800000000000001E-4</v>
       </c>
       <c r="L4" s="1">
-        <v>526</v>
+        <v>2.9809999999999998E-4</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
-        <f>(B3-B4)/B4</f>
-        <v>0</v>
+        <f>(B3-B7)/B7</f>
+        <v>1.046812749003984</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:K5" si="0">(C3-C4)/C4</f>
-        <v>0</v>
+        <f t="shared" ref="C5:D5" si="0">(C3-C7)/C7</f>
+        <v>0.52079002079002079</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <f>(L3-L4)/L4</f>
-        <v>0</v>
+        <v>0.32459016393442625</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
